--- a/backend/Data/VaccineInfo.xlsx
+++ b/backend/Data/VaccineInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Henry\University\Club\HackDavis\2022\HackDavis2022\ideas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290D12E-5FA3-4267-B9AF-3443E447C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0D9080-9223-431F-A234-5CACE8BEE67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>Dog Vaccine</t>
   </si>
@@ -280,6 +280,124 @@
   </si>
   <si>
     <t>Similar to bordetella.</t>
+  </si>
+  <si>
+    <t>Cat Vaccine</t>
+  </si>
+  <si>
+    <t>Initial Kitten Vaccination (at or under 16 weeks)</t>
+  </si>
+  <si>
+    <t>Initial Adult Cat Vaccination (over 16 weeks)</t>
+  </si>
+  <si>
+    <t>Rabies</t>
+  </si>
+  <si>
+    <t>Single dose as early as 8 weeks of age, depending on the product. Revaccinate 1 year later</t>
+  </si>
+  <si>
+    <t>single dose with yearly booster</t>
+  </si>
+  <si>
+    <t>Required annually or every 3 years, depending on vaccine used. State regulations may determine the frequency and type of booster required.</t>
+  </si>
+  <si>
+    <r>
+      <t>Core cat vaccine. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Roboto Condensed"/>
+      </rPr>
+      <t>Rabies is 100% fatal to cats, with no treatment available. Prevention is key.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feline Distemper (Panleukopenia)</t>
+  </si>
+  <si>
+    <t>As early as 6 weeks, then every 3-4 weeks until 16 weeks of age</t>
+  </si>
+  <si>
+    <t>1 dose is given a year after the last dose of the initial series, then every 3 years.</t>
+  </si>
+  <si>
+    <r>
+      <t>Core cat vaccine.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Roboto Condensed"/>
+      </rPr>
+      <t> Feline distemper is a severe contagious disease that most commonly strikes kittens and can cause death.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feline Herpesvirus</t>
+  </si>
+  <si>
+    <r>
+      <t>Core cat vaccine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Roboto Condensed"/>
+      </rPr>
+      <t>. Feline herpesvirus causes feline viral rhinotracheitis (FVR), a very contagious upper respiratory condition.</t>
+    </r>
+  </si>
+  <si>
+    <t>Calicivirus</t>
+  </si>
+  <si>
+    <r>
+      <t>Core cat vaccine.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Roboto Condensed"/>
+      </rPr>
+      <t> A very contagious upper respiratory condition that can cause joint pain, oral ulcerations, fever, and anorexia.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feline Leukemia Virus (FeLV)</t>
+  </si>
+  <si>
+    <t>As early as 8 weeks, then 3-4 weeks later</t>
+  </si>
+  <si>
+    <t>Every kitten should get a booster at one year.  If the cat doesn't go outside, no further vaccination is needed unless they are at higher risk. then annually.</t>
+  </si>
+  <si>
+    <t>Non-core cat vaccine.</t>
+  </si>
+  <si>
+    <t>Should test FeLV negative first. Transmitted via cat-to-cat contact. Can cause cancer, immunosuppressant</t>
+  </si>
+  <si>
+    <t>Bordetella</t>
+  </si>
+  <si>
+    <t>As early as 4 weeks</t>
+  </si>
+  <si>
+    <t>2 doses,1 year apart</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>A contagious upper respiratory condition.</t>
   </si>
 </sst>
 </file>
@@ -795,22 +913,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.08984375" customWidth="1"/>
     <col min="2" max="2" width="29.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" customWidth="1"/>
     <col min="5" max="5" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,8 +949,23 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="175" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="175" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -843,8 +981,23 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="187.5" x14ac:dyDescent="0.35">
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -860,8 +1013,23 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="238.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -877,8 +1045,23 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="226" x14ac:dyDescent="0.35">
+      <c r="G4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="226" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -894,8 +1077,23 @@
       <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="201" x14ac:dyDescent="0.35">
+      <c r="G5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -911,8 +1109,23 @@
       <c r="E6" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="200" x14ac:dyDescent="0.35">
+      <c r="G6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="200" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -928,8 +1141,15 @@
       <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="239" x14ac:dyDescent="0.35">
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="239" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -945,8 +1165,23 @@
       <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="262" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="262" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -962,15 +1197,22 @@
       <c r="E9" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="189" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="189" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -987,7 +1229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="264" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="264" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
@@ -1004,7 +1246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>50</v>
       </c>
@@ -1021,7 +1263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1031,7 +1273,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="17">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
